--- a/medicine/Psychotrope/Michel_Flanzy/Michel_Flanzy.xlsx
+++ b/medicine/Psychotrope/Michel_Flanzy/Michel_Flanzy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Flanzy (né le 20 février 1902 à Escouloubre et décédé à Narbonne, le 24 août 1992) est un œnologue français, l'un des pionniers de l'œnologie moderne. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à la Faculté de Toulouse, il a dirigé la « Station de recherche œnologique »  de l'I.N.R.A. à Narbonne, pendant plus d'un demi-siècle. Ce fut là qu'il put réaliser ses premiers essais sur la macération carbonique, technique qui a révolutionné la vinification de certains vins dont ceux du Beaujolais.
 Cette nouvelle technique a été appliqué tout d'abord dans le beaujolais et dans les côtes-du-rhône méridionales.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Claude Flanzy, Michel Flanzy et Pierre Benard, La vinification par macération carbonique, Éd. INRA, Paris, 1987</t>
         </is>
